--- a/Annual2017-EU/data/extras/RDFModel_NodesAdded.xlsx
+++ b/Annual2017-EU/data/extras/RDFModel_NodesAdded.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_gitHub\LinkedDataWorkshop\Annual2017-EU\data\extras\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="RDFModel" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Lists" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="RDFModel" sheetId="1" r:id="rId1"/>
+    <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="DataTypes" vbProcedure="false">Lists!$A$2:$A$5</definedName>
+    <definedName name="DataTypes">Lists!$A$2:$A$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RDFModel!$A$1:$D$20</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,117 +31,113 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
-    <t xml:space="preserve">Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ObjectType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firstName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treat1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enrolledIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 2 Double-blind study of Serum 114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatmentArm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugar Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treat2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protocol1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 2 Trial of Serum 114 in patients with acute episodes of ultraviolence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50mg Serum 114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permitted Data Types</t>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Predicate</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>Person1</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>Treat1</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>enrolledIn</t>
+  </si>
+  <si>
+    <t>Study1</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Phase 2 Double-blind study of Serum 114</t>
+  </si>
+  <si>
+    <t>treatmentArm</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Sugar Water</t>
+  </si>
+  <si>
+    <t>Person2</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Treat2</t>
+  </si>
+  <si>
+    <t>Protocol1</t>
+  </si>
+  <si>
+    <t>Phase 2 Trial of Serum 114 in patients with acute episodes of ultraviolence</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>50mg Serum 114</t>
+  </si>
+  <si>
+    <t>Permitted Data Types</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YYYY\ HH:MM:SS"/>
-  </numFmts>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -145,103 +146,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -249,7 +154,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -257,54 +169,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -343,307 +213,153 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="40" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="40" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="28">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="XLConnect.Boolean" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="XLConnect.DateTime" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="XLConnect.Header" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="XLConnect.Numeric" xfId="39" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="XLConnect.String" xfId="40" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="41" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
         <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -702,33 +418,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="36.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="3" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="8.72"/>
+    <col min="1" max="1" width="8.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="1" customWidth="1"/>
+    <col min="5" max="18" width="8.7265625" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="8.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -742,7 +766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -756,21 +780,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="9">
         <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -784,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -798,7 +822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -812,7 +836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -826,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -840,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
@@ -854,7 +878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
@@ -868,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -882,7 +906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -896,7 +920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
@@ -910,7 +934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -924,7 +948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
@@ -938,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
@@ -952,7 +976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -966,7 +990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -980,193 +1004,193 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
@@ -1174,97 +1198,84 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D26">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"uri"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"int"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"string"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D48">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"uri"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"int"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"string"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"uri"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"int"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"string"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" error="Enter a data type as one of the following: int string uri" errorTitle="Incorrect Data Type" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D50" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Data Type" error="Enter a data type as one of the following: int string uri" sqref="D2:D50">
       <formula1>DataTypes</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.45"/>
+    <col min="1" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Annual2017-EU/data/extras/RDFModel_NodesAdded.xlsx
+++ b/Annual2017-EU/data/extras/RDFModel_NodesAdded.xlsx
@@ -19,7 +19,7 @@
     <definedName name="DataTypes">Lists!$A$2:$A$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">RDFModel!$A$1:$D$20</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>Subject</t>
   </si>
@@ -43,9 +43,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>Person1</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Sugar Water</t>
   </si>
   <si>
-    <t>Person2</t>
-  </si>
-  <si>
     <t>Sally</t>
   </si>
   <si>
@@ -109,12 +103,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Treat2</t>
-  </si>
-  <si>
-    <t>Protocol1</t>
-  </si>
-  <si>
     <t>Phase 2 Trial of Serum 114 in patients with acute episodes of ultraviolence</t>
   </si>
   <si>
@@ -131,6 +119,24 @@
   </si>
   <si>
     <t>Permitted Data Types</t>
+  </si>
+  <si>
+    <t>PERSON1</t>
+  </si>
+  <si>
+    <t>STUDY1</t>
+  </si>
+  <si>
+    <t>TREAT1</t>
+  </si>
+  <si>
+    <t>PERSON2</t>
+  </si>
+  <si>
+    <t>PROTOCOL1</t>
+  </si>
+  <si>
+    <t>TREAT2</t>
   </si>
 </sst>
 </file>
@@ -739,7 +745,7 @@
   <dimension ref="A1:AMK50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,240 +774,240 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9">
         <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1197,6 +1203,7 @@
       <c r="D50" s="18"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="IKIyUT649kK+/gkZtft0gsikBXzTO8r+yFiyQOz4XWOaFhf3SZnopuz3thKy8pz4U3iHqkpGeBoGbrj6sHIoRw==" saltValue="Rew/uxbx4eta43hZQpSvfw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D2:D26">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"uri"</formula>
@@ -1256,22 +1263,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
